--- a/result_1896_to_1902.xlsx
+++ b/result_1896_to_1902.xlsx
@@ -10887,7 +10887,7 @@
         </is>
       </c>
       <c r="D581" t="n">
-        <v>73236</v>
+        <v>73237</v>
       </c>
     </row>
     <row r="582">
@@ -32631,7 +32631,7 @@
         </is>
       </c>
       <c r="D1789" t="n">
-        <v>48743</v>
+        <v>48745</v>
       </c>
     </row>
     <row r="1790">
@@ -38931,7 +38931,7 @@
         </is>
       </c>
       <c r="D2139" t="n">
-        <v>37538</v>
+        <v>37540</v>
       </c>
     </row>
     <row r="2140">
